--- a/Test_Plan_Kanap_P5.xlsx
+++ b/Test_Plan_Kanap_P5.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25917"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EB6FAF9-068F-4440-A374-463A8F71F290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB415F6D-F70B-4479-8A0D-96866935E617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,10 +45,48 @@
     <t xml:space="preserve">A home page showing (dynamically) all products available for sale. </t>
   </si>
   <si>
-    <t>Open the home page on a browser.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Display all the products. </t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Montserrat"/>
+      </rPr>
+      <t xml:space="preserve">Open the home page on a browser. - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Montserrat"/>
+      </rPr>
+      <t>"I open the homepage of the Kanap website."</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Montserrat"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Montserrat"/>
+      </rPr>
+      <t xml:space="preserve">Display all the products. - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Montserrat"/>
+      </rPr>
+      <t>"I can see all the products on the home page."</t>
+    </r>
   </si>
   <si>
     <t>OK / Error description</t>
@@ -57,10 +95,40 @@
     <t xml:space="preserve">A product page showing (dynamically) the details of the product that the user clicked on when on the home page. </t>
   </si>
   <si>
-    <t>Select one of the products and click on it.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Display the ditails of the product. Photo of the product with price, description, quantity buttons and color drop-down menu. </t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Montserrat"/>
+      </rPr>
+      <t xml:space="preserve">Select one of the products and click on it. - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Montserrat"/>
+      </rPr>
+      <t>"I choose Kanap Sinope sofa and click on it."</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Montserrat"/>
+      </rPr>
+      <t xml:space="preserve">Display the ditails of the product. Photo of the product with price, description, quantity buttons and color drop-down menu. - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Montserrat"/>
+      </rPr>
+      <t>"After clicking on it, I'm taken to the sofa's page. On this page I see all the information about the sofa, the photo of the sofa, its price, which colour I can choose and the quantity."</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">OK </t>
@@ -69,10 +137,40 @@
     <t xml:space="preserve">Selection of product quantity. </t>
   </si>
   <si>
-    <t xml:space="preserve">Click on the quantity button. Up or down arrow.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Display selected quantity. An increase or decrease in the quantity of the product. </t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Montserrat"/>
+      </rPr>
+      <t xml:space="preserve">Click on the quantity button. Up or down arrow.  - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Montserrat"/>
+      </rPr>
+      <t>"I press the quantity button, arrow up, and choose two sofas. "</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Montserrat"/>
+      </rPr>
+      <t xml:space="preserve">Display selected quantity. An increase or decrease in the quantity of the product. - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Montserrat"/>
+      </rPr>
+      <t>"In the number box, I see the number two."</t>
+    </r>
   </si>
   <si>
     <t>OK</t>
@@ -81,90 +179,361 @@
     <t xml:space="preserve">Selection of product colour. </t>
   </si>
   <si>
-    <t>Click on the color input. Select a color from the drop-down menu.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Display selected color. </t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Montserrat"/>
+      </rPr>
+      <t xml:space="preserve">Click on the color input. Select a color from the drop-down menu. - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Montserrat"/>
+      </rPr>
+      <t>"I click on the colour selection menu. I see three colours to choose from, blue, white and black and choose black."</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Montserrat"/>
+      </rPr>
+      <t xml:space="preserve">Display selected color. - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Montserrat"/>
+      </rPr>
+      <t>"In the colour selection box, I see black."</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Adding the product to the cart. </t>
   </si>
   <si>
-    <t xml:space="preserve">Click on the "Add to cart" button at the bottom after all the product information. </t>
-  </si>
-  <si>
-    <t>Adding to the cart selected products with selected quantity and color. When you click on the "Add to cart" button, at the top of the page, a notification will pop up "Product added to the cart.".</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Montserrat"/>
+      </rPr>
+      <t xml:space="preserve">Click on the "Add to cart" button at the bottom after all the product information. - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Montserrat"/>
+      </rPr>
+      <t>"I see the "add to cart" button аt the bottom of the screen and click on it. "</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Montserrat"/>
+      </rPr>
+      <t xml:space="preserve">Adding to the cart selected products with selected quantity and color. When you click on the "Add to cart" button, at the top of the page, a notification will pop up "Product added to the cart.". - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Montserrat"/>
+      </rPr>
+      <t>"After I clicked on the "add to cart" button, a notification popped up at the top of the page that my item had been added to cart."</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">A cart page showing (dynamically) all selected products with color and quantity. </t>
   </si>
   <si>
-    <t xml:space="preserve">Click on the "Cart" button in the top right-hand corner of the product page. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">After clicking on the "Cart" button, you will be taken to the Cart page. On the Cart page display all selected products with quantity and color. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A summary of the products in the cart and the total price. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open the cart page on a browser. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Display (dynamically) the total quantity and the total price. To the right after all the information on the selected product. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">User able to change the quantity of the chosen products on the Cart page. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on the quantity input. Up or down arrow. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enumeration (dynamically) of the total quantity and  the total price and display them. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remove product from the Сart. </t>
-  </si>
-  <si>
-    <t>Click on the "Delete" button under the quantity column.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Removing (dynamically) the product from the Cart without reloading the browser page. </t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Montserrat"/>
+      </rPr>
+      <t xml:space="preserve">Click on the "Cart" button in the top right-hand corner of the product page. - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Montserrat"/>
+      </rPr>
+      <t>"In the upper right corner I see the "Cart" button and click on it."</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Montserrat"/>
+      </rPr>
+      <t xml:space="preserve">After clicking on the "Cart" button, you will be taken to the Cart page. On the Cart page display all selected products with quantity and color. - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Montserrat"/>
+      </rPr>
+      <t>"I'm being taken to the cart page. Here I see a picture of my sofa, its name, the colour I have chosen, the price per sofa, the quantity I have chosen and the delete button."</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">A summary of the products in the cart and the total price (dynamically). </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Montserrat"/>
+      </rPr>
+      <t>Open the cart page on a browser. -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Montserrat"/>
+      </rPr>
+      <t xml:space="preserve"> "I go to the cart page by clicking on the cart button in the top right corner from the home page or the product page. "</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Montserrat"/>
+      </rPr>
+      <t xml:space="preserve">Display the total quantity and the total price. To the right after all the information on the selected product. - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Montserrat"/>
+      </rPr>
+      <t>"On the shopping basket page, under the description of my sofa, I see the total number of items I have selected and the total cost."</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">User able to change the quantity of the chosen products on the Cart page (dynamically). </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Montserrat"/>
+      </rPr>
+      <t xml:space="preserve">Click on the quantity input. Up or down arrow. - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Montserrat"/>
+      </rPr>
+      <t>"When I am on the cart page I click on the button to select the quantity of an item, the up arrow to increase the quantity and the down arrow to decrease the quantity."</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Montserrat"/>
+      </rPr>
+      <t xml:space="preserve">Enumeration of the total quantity and  the total price and display them. - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Montserrat"/>
+      </rPr>
+      <t>"I see the number of my sofas change immediately in the quantity window. The total cost of my order also changes."</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Remove product from the Сart (dynamically). </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Montserrat"/>
+      </rPr>
+      <t xml:space="preserve">Click on the "Delete" button under the quantity column. - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Montserrat"/>
+      </rPr>
+      <t>"There is a delete button next to the product description and I click on it."</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Montserrat"/>
+      </rPr>
+      <t xml:space="preserve">Removing the product from the Cart without reloading the browser page. - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Montserrat"/>
+      </rPr>
+      <t>"My sofa disappears from the basket."</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">The validation of the order form. </t>
   </si>
   <si>
-    <t xml:space="preserve">Fill the form inputs. Write your surname, first name, address, city and email. </t>
-  </si>
-  <si>
-    <t>If a field is not filled in correctly, a notice will be displayed under the field "Incorrect format!".</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Montserrat"/>
+      </rPr>
+      <t xml:space="preserve">Fill the form inputs. Write your surname, first name, address, city and email. - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Montserrat"/>
+      </rPr>
+      <t>"At the bottom of the shopping basket page I see a checkout form. I fill out this form, write my first and last name, write my address and city, and specify my email. But I accidentally wrote the number 2 in the city."</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Montserrat"/>
+      </rPr>
+      <t xml:space="preserve">If a field is not filled in correctly, a notice will be displayed under the field "Incorrect format!". - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Montserrat"/>
+      </rPr>
+      <t>"Under the box where I wrote the name of my city, it says "Incorrect format!"</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Validation of order dispatch. </t>
   </si>
   <si>
-    <t>When you have completed all the fields of the form, click on the "Order" button.</t>
-  </si>
-  <si>
-    <t>If one of the fields was filled in incorrectly or was not filled in, a notification will pop up "Make sure all the fields are filled in correctly!" or "Please fill in all fields!".</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Montserrat"/>
+      </rPr>
+      <t xml:space="preserve">When you have completed all the fields of the form, click on the "Order" button. - "I filled in all the fields first name, surname, address, city, email. I made a mistake in spelling the city. I press the Order button.". - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Montserrat"/>
+      </rPr>
+      <t>"I filled in all the fields first name, surname, address, city, email. I forgot to write my address. I press the Order button."</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Montserrat"/>
+      </rPr>
+      <t xml:space="preserve">If one of the fields was filled in incorrectly or was not filled in, a notification will pop up "Make sure all the fields are filled in correctly!" or "Please fill in all fields!". - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Montserrat"/>
+      </rPr>
+      <t>"A notice popped up at the top of the screen "Make sure all the fields are filled in correctly!"". - ""A notice popped up at the top of the screen "Please fill in all fields!"".</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Order confirmation. </t>
   </si>
   <si>
-    <t>When you have decided on the quantity of products you want, click on the "Order" button.</t>
-  </si>
-  <si>
-    <t>After clicking on the "Order" button on the "Product" page, you will be taken to the "Confirmation" page. The order confirmation page will display the text "Order confirmed!
-Your order number is: (ID of your order)".</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Montserrat"/>
+      </rPr>
+      <t xml:space="preserve">When you have decided on the quantity of products you want, click on the "Order" button. - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Montserrat"/>
+      </rPr>
+      <t>"I have edited my order and am ready to proceed to checkout. I press the order button."</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Montserrat"/>
+      </rPr>
+      <t xml:space="preserve">After clicking on the "Order" button on the "Product" page, you will be taken to the "Confirmation" page. The order confirmation page will display the text "Order confirmed!
+Your order number is: (ID of your order)". - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Montserrat"/>
+      </rPr>
+      <t>"I am taken to the order page. I see "Order confirmed!
+Your order number is:" and my order number."</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -183,6 +552,16 @@
     </font>
     <font>
       <sz val="14"/>
+      <name val="Montserrat"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Montserrat"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
       <name val="Montserrat"/>
     </font>
   </fonts>
@@ -690,8 +1069,8 @@
   </sheetPr>
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -717,7 +1096,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="38.25">
+    <row r="2" spans="1:5" ht="57.75">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -734,7 +1113,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="78">
+    <row r="3" spans="1:5" ht="154.5">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -751,7 +1130,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="38.25">
+    <row r="4" spans="1:5" ht="78">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -768,7 +1147,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="38.25">
+    <row r="5" spans="1:5" ht="96.75">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -785,7 +1164,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="96.75">
+    <row r="6" spans="1:5" ht="174">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -802,7 +1181,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="78">
+    <row r="7" spans="1:5" ht="174">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -819,7 +1198,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="57.75">
+    <row r="8" spans="1:5" ht="135.75">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -836,7 +1215,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="57.75">
+    <row r="9" spans="1:5" ht="116.25">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -853,7 +1232,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="57.75">
+    <row r="10" spans="1:5" ht="78">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -870,7 +1249,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="57.75">
+    <row r="11" spans="1:5" ht="154.5">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -887,7 +1266,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="78">
+    <row r="12" spans="1:5" ht="174">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -904,7 +1283,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="116.25">
+    <row r="13" spans="1:5" ht="194.25">
       <c r="A13" s="8">
         <v>12</v>
       </c>
